--- a/subject_height_and_weight.xlsx
+++ b/subject_height_and_weight.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pdholmes/Documents/MATLAB/STS_SB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92699660-70F4-AB4B-B87C-1F9E421F406E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A203C7E-7676-8F45-8341-FE7B203E9681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="8760" xr2:uid="{CCDB9C62-963B-2645-B9F7-16C5C24A2690}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t>Subject</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>Weight (kg)</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -394,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E4207F-5452-7349-960D-776C519A568B}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,8 +421,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -423,8 +435,11 @@
       <c r="C2">
         <v>65.770799999999994</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -434,8 +449,11 @@
       <c r="C3">
         <v>63.502899999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -445,8 +463,11 @@
       <c r="C4">
         <v>58.059800000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -456,8 +477,11 @@
       <c r="C5">
         <v>52.1631</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -467,8 +491,11 @@
       <c r="C6">
         <v>63.502899999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -478,8 +505,11 @@
       <c r="C7">
         <v>65.770799999999994</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -489,8 +519,11 @@
       <c r="C8">
         <v>54.430999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -500,8 +533,11 @@
       <c r="C9">
         <v>87.089699999999993</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -511,8 +547,11 @@
       <c r="C10">
         <v>81.646600000000007</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -522,8 +561,11 @@
       <c r="C11">
         <v>63.502899999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -532,6 +574,9 @@
       </c>
       <c r="C12">
         <v>58.059800000000003</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
